--- a/2.Design/Template/File_loi_xuat_hang.xlsx
+++ b/2.Design/Template/File_loi_xuat_hang.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WMS\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DE48C2-7D25-4751-8B6A-626CA5F9D4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="203"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -185,14 +186,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,99 +504,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:26" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,9 +582,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:40" s="6" customFormat="1">
+    </row>
+    <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -640,22 +611,8 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:40" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -667,9 +624,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:40">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -679,9 +635,8 @@
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:40">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -691,9 +646,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:40">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -703,9 +657,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:40">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -715,9 +668,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:40">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -727,9 +679,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:40">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -739,9 +690,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:40">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -751,9 +701,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:40">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -763,9 +712,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:40">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -775,9 +723,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:40">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -787,9 +734,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:40">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -799,9 +745,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:40">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -811,7 +756,6 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
